--- a/NewProbableCasesOverTimeByCounty/2021-02-03.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-02-03.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/02/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/03/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>New Probable 2021-02-02</t>
+  </si>
+  <si>
+    <t>New Probable 2021-02-03</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1281,6 +1284,7 @@
     <col min="93" max="93" width="12.0" customWidth="true"/>
     <col min="94" max="94" width="12.0" customWidth="true"/>
     <col min="95" max="95" width="12.0" customWidth="true"/>
+    <col min="96" max="96" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1579,10 +1583,13 @@
       <c r="CQ3" t="s" s="10">
         <v>96</v>
       </c>
+      <c r="CR3" t="s" s="10">
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1865,11 +1872,14 @@
       </c>
       <c r="CQ4" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2151,12 +2161,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2439,11 +2452,14 @@
       </c>
       <c r="CQ6" t="n">
         <v>119.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2726,11 +2742,14 @@
       </c>
       <c r="CQ7" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3012,12 +3031,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3300,11 +3322,14 @@
       </c>
       <c r="CQ9" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3587,11 +3612,14 @@
       </c>
       <c r="CQ10" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3874,11 +3902,14 @@
       </c>
       <c r="CQ11" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4160,12 +4191,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4448,11 +4482,14 @@
       </c>
       <c r="CQ13" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4735,11 +4772,14 @@
       </c>
       <c r="CQ14" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5021,12 +5061,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5309,11 +5352,14 @@
       </c>
       <c r="CQ16" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5595,12 +5641,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -5883,11 +5932,14 @@
       </c>
       <c r="CQ18" t="n">
         <v>120.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -6170,11 +6222,14 @@
       </c>
       <c r="CQ19" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -6456,12 +6511,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -6744,11 +6802,14 @@
       </c>
       <c r="CQ21" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -7031,11 +7092,14 @@
       </c>
       <c r="CQ22" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -7318,11 +7382,14 @@
       </c>
       <c r="CQ23" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -7605,11 +7672,14 @@
       </c>
       <c r="CQ24" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -7892,11 +7962,14 @@
       </c>
       <c r="CQ25" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -8179,11 +8252,14 @@
       </c>
       <c r="CQ26" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -8466,11 +8542,14 @@
       </c>
       <c r="CQ27" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -8753,11 +8832,14 @@
       </c>
       <c r="CQ28" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CR28" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -9040,11 +9122,14 @@
       </c>
       <c r="CQ29" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CR29" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -9327,11 +9412,14 @@
       </c>
       <c r="CQ30" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CR30" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -9614,11 +9702,14 @@
       </c>
       <c r="CQ31" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR31" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -9901,11 +9992,14 @@
       </c>
       <c r="CQ32" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR32" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -10188,11 +10282,14 @@
       </c>
       <c r="CQ33" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CR33" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -10474,12 +10571,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -10762,11 +10862,14 @@
       </c>
       <c r="CQ35" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CR35" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -11048,12 +11151,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR36" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -11336,11 +11442,14 @@
       </c>
       <c r="CQ37" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CR37" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -11623,11 +11732,14 @@
       </c>
       <c r="CQ38" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR38" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -11909,12 +12021,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -12197,11 +12312,14 @@
       </c>
       <c r="CQ40" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR40" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -12483,12 +12601,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR41" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -12771,11 +12892,14 @@
       </c>
       <c r="CQ42" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR42" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -13058,11 +13182,14 @@
       </c>
       <c r="CQ43" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR43" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -13344,12 +13471,15 @@
         <v>1.0</v>
       </c>
       <c r="CQ44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR44" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -13631,12 +13761,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -13919,11 +14052,14 @@
       </c>
       <c r="CQ46" t="n">
         <v>165.0</v>
+      </c>
+      <c r="CR46" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -14205,12 +14341,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -14493,11 +14632,14 @@
       </c>
       <c r="CQ48" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR48" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -14780,11 +14922,14 @@
       </c>
       <c r="CQ49" t="n">
         <v>54.0</v>
+      </c>
+      <c r="CR49" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -15067,11 +15212,14 @@
       </c>
       <c r="CQ50" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR50" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -15354,11 +15502,14 @@
       </c>
       <c r="CQ51" t="n">
         <v>-3.0</v>
+      </c>
+      <c r="CR51" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -15641,11 +15792,14 @@
       </c>
       <c r="CQ52" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR52" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -15927,12 +16081,15 @@
         <v>10.0</v>
       </c>
       <c r="CQ53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR53" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -16214,12 +16371,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -16502,11 +16662,14 @@
       </c>
       <c r="CQ55" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR55" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -16789,11 +16952,14 @@
       </c>
       <c r="CQ56" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR56" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -17076,11 +17242,14 @@
       </c>
       <c r="CQ57" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR57" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -17362,12 +17531,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR58" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -17650,11 +17822,14 @@
       </c>
       <c r="CQ59" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR59" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -17937,11 +18112,14 @@
       </c>
       <c r="CQ60" t="n">
         <v>106.0</v>
+      </c>
+      <c r="CR60" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -18223,12 +18401,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -18511,11 +18692,14 @@
       </c>
       <c r="CQ62" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR62" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -18797,12 +18981,15 @@
         <v>7.0</v>
       </c>
       <c r="CQ63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CR63" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -19085,11 +19272,14 @@
       </c>
       <c r="CQ64" t="n">
         <v>214.0</v>
+      </c>
+      <c r="CR64" t="n">
+        <v>233.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -19371,12 +19561,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -19658,12 +19851,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR66" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -19946,11 +20142,14 @@
       </c>
       <c r="CQ67" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR67" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -20233,11 +20432,14 @@
       </c>
       <c r="CQ68" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR68" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -20520,11 +20722,14 @@
       </c>
       <c r="CQ69" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR69" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -20806,12 +21011,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR70" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -21094,11 +21302,14 @@
       </c>
       <c r="CQ71" t="n">
         <v>71.0</v>
+      </c>
+      <c r="CR71" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -21381,11 +21592,14 @@
       </c>
       <c r="CQ72" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CR72" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -21668,11 +21882,14 @@
       </c>
       <c r="CQ73" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CR73" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -21954,12 +22171,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -22242,11 +22462,14 @@
       </c>
       <c r="CQ75" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR75" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -22529,11 +22752,14 @@
       </c>
       <c r="CQ76" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR76" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -22816,11 +23042,14 @@
       </c>
       <c r="CQ77" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CR77" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -23103,11 +23332,14 @@
       </c>
       <c r="CQ78" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CR78" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -23389,12 +23621,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -23677,11 +23912,14 @@
       </c>
       <c r="CQ80" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR80" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -23963,12 +24201,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -24251,11 +24492,14 @@
       </c>
       <c r="CQ82" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR82" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -24538,11 +24782,14 @@
       </c>
       <c r="CQ83" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CR83" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -24825,11 +25072,14 @@
       </c>
       <c r="CQ84" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CR84" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -25112,11 +25362,14 @@
       </c>
       <c r="CQ85" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR85" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -25398,12 +25651,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -25686,11 +25942,14 @@
       </c>
       <c r="CQ87" t="n">
         <v>66.0</v>
+      </c>
+      <c r="CR87" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -25973,11 +26232,14 @@
       </c>
       <c r="CQ88" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR88" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -26259,12 +26521,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ89" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CR89" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -26547,11 +26812,14 @@
       </c>
       <c r="CQ90" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR90" t="n">
+        <v>-7.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -26834,11 +27102,14 @@
       </c>
       <c r="CQ91" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CR91" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -27121,11 +27392,14 @@
       </c>
       <c r="CQ92" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR92" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -27408,11 +27682,14 @@
       </c>
       <c r="CQ93" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR93" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -27694,12 +27971,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -27982,11 +28262,14 @@
       </c>
       <c r="CQ95" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR95" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -28269,11 +28552,14 @@
       </c>
       <c r="CQ96" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR96" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -28556,11 +28842,14 @@
       </c>
       <c r="CQ97" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CR97" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -28842,12 +29131,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -29129,12 +29421,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR99" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -29416,12 +29711,15 @@
         <v>1.0</v>
       </c>
       <c r="CQ100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR100" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -29704,11 +30002,14 @@
       </c>
       <c r="CQ101" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR101" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -29990,12 +30291,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -30278,11 +30582,14 @@
       </c>
       <c r="CQ103" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR103" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -30564,12 +30871,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -30852,11 +31162,14 @@
       </c>
       <c r="CQ105" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CR105" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -31139,11 +31452,14 @@
       </c>
       <c r="CQ106" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR106" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -31426,11 +31742,14 @@
       </c>
       <c r="CQ107" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CR107" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -31713,11 +32032,14 @@
       </c>
       <c r="CQ108" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CR108" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -31999,12 +32321,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR109" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -32287,11 +32612,14 @@
       </c>
       <c r="CQ110" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR110" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -32574,11 +32902,14 @@
       </c>
       <c r="CQ111" t="n">
         <v>315.0</v>
+      </c>
+      <c r="CR111" t="n">
+        <v>618.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -32861,11 +33192,14 @@
       </c>
       <c r="CQ112" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR112" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -33148,11 +33482,14 @@
       </c>
       <c r="CQ113" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR113" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -33435,11 +33772,14 @@
       </c>
       <c r="CQ114" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CR114" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -33722,11 +34062,14 @@
       </c>
       <c r="CQ115" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CR115" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -34009,11 +34352,14 @@
       </c>
       <c r="CQ116" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR116" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -34296,11 +34642,14 @@
       </c>
       <c r="CQ117" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR117" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -34582,12 +34931,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -34869,12 +35221,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -35157,11 +35512,14 @@
       </c>
       <c r="CQ120" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR120" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -35444,11 +35802,14 @@
       </c>
       <c r="CQ121" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR121" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -35730,12 +36091,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR122" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -36018,11 +36382,14 @@
       </c>
       <c r="CQ123" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR123" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -36305,11 +36672,14 @@
       </c>
       <c r="CQ124" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CR124" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -36592,11 +36962,14 @@
       </c>
       <c r="CQ125" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR125" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -36878,12 +37251,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -37166,11 +37542,14 @@
       </c>
       <c r="CQ127" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR127" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -37453,11 +37832,14 @@
       </c>
       <c r="CQ128" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CR128" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -37740,11 +38122,14 @@
       </c>
       <c r="CQ129" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CR129" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -38027,11 +38412,14 @@
       </c>
       <c r="CQ130" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CR130" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -38314,11 +38702,14 @@
       </c>
       <c r="CQ131" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR131" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -38601,11 +38992,14 @@
       </c>
       <c r="CQ132" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CR132" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -38888,11 +39282,14 @@
       </c>
       <c r="CQ133" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CR133" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -39175,11 +39572,14 @@
       </c>
       <c r="CQ134" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CR134" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -39462,11 +39862,14 @@
       </c>
       <c r="CQ135" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR135" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -39749,11 +40152,14 @@
       </c>
       <c r="CQ136" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CR136" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -40036,11 +40442,14 @@
       </c>
       <c r="CQ137" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR137" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -40322,12 +40731,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -40609,12 +41021,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -40897,11 +41312,14 @@
       </c>
       <c r="CQ140" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR140" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -41184,11 +41602,14 @@
       </c>
       <c r="CQ141" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR141" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -41471,11 +41892,14 @@
       </c>
       <c r="CQ142" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR142" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -41758,11 +42182,14 @@
       </c>
       <c r="CQ143" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CR143" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -42045,11 +42472,14 @@
       </c>
       <c r="CQ144" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CR144" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -42331,12 +42761,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR145" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -42619,11 +43052,14 @@
       </c>
       <c r="CQ146" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CR146" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -42906,11 +43342,14 @@
       </c>
       <c r="CQ147" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR147" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -43193,11 +43632,14 @@
       </c>
       <c r="CQ148" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR148" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -43480,11 +43922,14 @@
       </c>
       <c r="CQ149" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CR149" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -43767,11 +44212,14 @@
       </c>
       <c r="CQ150" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CR150" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -44053,12 +44501,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR151" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -44340,12 +44791,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR152" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -44627,12 +45081,15 @@
         <v>21.0</v>
       </c>
       <c r="CQ153" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CR153" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -44914,12 +45371,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -45201,12 +45661,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -45488,12 +45951,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -45776,11 +46242,14 @@
       </c>
       <c r="CQ157" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR157" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -46062,12 +46531,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -46349,12 +46821,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -46637,11 +47112,14 @@
       </c>
       <c r="CQ160" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR160" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -46924,11 +47402,14 @@
       </c>
       <c r="CQ161" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR161" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -47211,11 +47692,14 @@
       </c>
       <c r="CQ162" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR162" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -47497,12 +47981,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ163" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CR163" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -47785,11 +48272,14 @@
       </c>
       <c r="CQ164" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR164" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -48071,12 +48561,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -48359,11 +48852,14 @@
       </c>
       <c r="CQ166" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR166" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -48646,11 +49142,14 @@
       </c>
       <c r="CQ167" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR167" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -48932,12 +49431,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -49220,11 +49722,14 @@
       </c>
       <c r="CQ169" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR169" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -49507,11 +50012,14 @@
       </c>
       <c r="CQ170" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR170" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -49793,12 +50301,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -50080,12 +50591,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR172" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -50368,11 +50882,14 @@
       </c>
       <c r="CQ173" t="n">
         <v>104.0</v>
+      </c>
+      <c r="CR173" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -50655,11 +51172,14 @@
       </c>
       <c r="CQ174" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR174" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -50942,11 +51462,14 @@
       </c>
       <c r="CQ175" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CR175" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -51228,12 +51751,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -51516,11 +52042,14 @@
       </c>
       <c r="CQ177" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CR177" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -51803,11 +52332,14 @@
       </c>
       <c r="CQ178" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR178" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -52090,11 +52622,14 @@
       </c>
       <c r="CQ179" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR179" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -52376,12 +52911,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -52664,11 +53202,14 @@
       </c>
       <c r="CQ181" t="n">
         <v>71.0</v>
+      </c>
+      <c r="CR181" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -52950,12 +53491,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR182" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -53238,11 +53782,14 @@
       </c>
       <c r="CQ183" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CR183" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -53525,11 +54072,14 @@
       </c>
       <c r="CQ184" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR184" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -53812,11 +54362,14 @@
       </c>
       <c r="CQ185" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR185" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -54099,11 +54652,14 @@
       </c>
       <c r="CQ186" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR186" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -54386,11 +54942,14 @@
       </c>
       <c r="CQ187" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CR187" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -54672,12 +55231,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR188" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -54960,11 +55522,14 @@
       </c>
       <c r="CQ189" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR189" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -55247,11 +55812,14 @@
       </c>
       <c r="CQ190" t="n">
         <v>49.0</v>
+      </c>
+      <c r="CR190" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -55533,12 +56101,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -55820,12 +56391,15 @@
         <v>2.0</v>
       </c>
       <c r="CQ192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR192" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -56108,11 +56682,14 @@
       </c>
       <c r="CQ193" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR193" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -56394,12 +56971,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -56682,11 +57262,14 @@
       </c>
       <c r="CQ195" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR195" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -56968,12 +57551,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR196" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -57256,11 +57842,14 @@
       </c>
       <c r="CQ197" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR197" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -57543,11 +58132,14 @@
       </c>
       <c r="CQ198" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR198" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -57829,12 +58421,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ199" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR199" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -58116,12 +58711,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -58404,11 +59002,14 @@
       </c>
       <c r="CQ201" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CR201" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -58691,11 +59292,14 @@
       </c>
       <c r="CQ202" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CR202" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -58978,11 +59582,14 @@
       </c>
       <c r="CQ203" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CR203" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -59265,11 +59872,14 @@
       </c>
       <c r="CQ204" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CR204" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -59552,11 +60162,14 @@
       </c>
       <c r="CQ205" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR205" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -59839,11 +60452,14 @@
       </c>
       <c r="CQ206" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR206" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -60126,11 +60742,14 @@
       </c>
       <c r="CQ207" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CR207" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -60412,12 +61031,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -60699,12 +61321,15 @@
         <v>5.0</v>
       </c>
       <c r="CQ209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR209" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -60986,12 +61611,15 @@
         <v>1.0</v>
       </c>
       <c r="CQ210" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR210" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -61273,12 +61901,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -61561,11 +62192,14 @@
       </c>
       <c r="CQ212" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR212" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -61848,11 +62482,14 @@
       </c>
       <c r="CQ213" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CR213" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -62134,12 +62771,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR214" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -62422,11 +63062,14 @@
       </c>
       <c r="CQ215" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR215" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -62709,11 +63352,14 @@
       </c>
       <c r="CQ216" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR216" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -62996,11 +63642,14 @@
       </c>
       <c r="CQ217" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CR217" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -63283,11 +63932,14 @@
       </c>
       <c r="CQ218" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CR218" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -63569,12 +64221,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR219" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -63857,11 +64512,14 @@
       </c>
       <c r="CQ220" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR220" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -64144,11 +64802,14 @@
       </c>
       <c r="CQ221" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR221" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -64431,11 +65092,14 @@
       </c>
       <c r="CQ222" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR222" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -64718,11 +65382,14 @@
       </c>
       <c r="CQ223" t="n">
         <v>630.0</v>
+      </c>
+      <c r="CR223" t="n">
+        <v>663.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -65005,11 +65672,14 @@
       </c>
       <c r="CQ224" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CR224" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -65291,12 +65961,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -65578,12 +66251,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -65865,12 +66541,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -66153,11 +66832,14 @@
       </c>
       <c r="CQ228" t="n">
         <v>48.0</v>
+      </c>
+      <c r="CR228" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -66440,11 +67122,14 @@
       </c>
       <c r="CQ229" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CR229" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -66726,12 +67411,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -67014,11 +67702,14 @@
       </c>
       <c r="CQ231" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR231" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -67301,11 +67992,14 @@
       </c>
       <c r="CQ232" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CR232" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -67588,11 +68282,14 @@
       </c>
       <c r="CQ233" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CR233" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -67875,11 +68572,14 @@
       </c>
       <c r="CQ234" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR234" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -68162,11 +68862,14 @@
       </c>
       <c r="CQ235" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR235" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -68448,12 +69151,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -68736,11 +69442,14 @@
       </c>
       <c r="CQ237" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR237" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -69022,12 +69731,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -69310,11 +70022,14 @@
       </c>
       <c r="CQ239" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR239" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -69597,11 +70312,14 @@
       </c>
       <c r="CQ240" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CR240" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -69884,11 +70602,14 @@
       </c>
       <c r="CQ241" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR241" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -70171,11 +70892,14 @@
       </c>
       <c r="CQ242" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR242" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -70457,12 +71181,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -70745,11 +71472,14 @@
       </c>
       <c r="CQ244" t="n">
         <v>-3.0</v>
+      </c>
+      <c r="CR244" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -71031,12 +71761,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR245" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -71318,12 +72051,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -71605,12 +72341,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ247" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR247" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -71893,11 +72632,14 @@
       </c>
       <c r="CQ248" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CR248" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -72180,11 +72922,14 @@
       </c>
       <c r="CQ249" t="n">
         <v>177.0</v>
+      </c>
+      <c r="CR249" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -72467,11 +73212,14 @@
       </c>
       <c r="CQ250" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CR250" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -72754,11 +73502,14 @@
       </c>
       <c r="CQ251" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR251" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -73041,11 +73792,14 @@
       </c>
       <c r="CQ252" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CR252" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -73328,11 +74082,14 @@
       </c>
       <c r="CQ253" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CR253" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -73614,12 +74371,15 @@
         <v>0.0</v>
       </c>
       <c r="CQ254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -73902,11 +74662,14 @@
       </c>
       <c r="CQ255" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CR255" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -74189,11 +74952,14 @@
       </c>
       <c r="CQ256" t="n">
         <v>-4.0</v>
+      </c>
+      <c r="CR256" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -74476,11 +75242,14 @@
       </c>
       <c r="CQ257" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CR257" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -74576,10 +75345,11 @@
       <c r="CO258"/>
       <c r="CP258"/>
       <c r="CQ258"/>
+      <c r="CR258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -74675,6 +75445,7 @@
       <c r="CO259"/>
       <c r="CP259"/>
       <c r="CQ259"/>
+      <c r="CR259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
